--- a/data/member_portal/register.xlsx
+++ b/data/member_portal/register.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>case_no</t>
   </si>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delete the user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>first_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +82,50 @@
   </si>
   <si>
     <t>1234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoanqu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenzhenshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdongsheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddy1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from users where email ='{}'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,87 +487,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="39.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/member_portal/register.xlsx
+++ b/data/member_portal/register.xlsx
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Auto1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +122,10 @@
   </si>
   <si>
     <t>delete from users where email ='{}'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto1@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +490,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,43 +519,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -575,34 +575,34 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/member_portal/register.xlsx
+++ b/data/member_portal/register.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>case_no</t>
   </si>
@@ -126,6 +126,46 @@
   </si>
   <si>
     <t>auto1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456199001019999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_proof.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -506,12 +546,15 @@
     <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="39.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,16 +592,31 @@
         <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -596,12 +654,27 @@
         <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/member_portal/register.xlsx
+++ b/data/member_portal/register.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>case_no</t>
   </si>
@@ -25,10 +25,6 @@
     <t>expect</t>
   </si>
   <si>
-    <t>正常注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,31 +73,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>investor_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenzhenshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdongsheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from users where email ='{}'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456199001019999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_proof.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册-未配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册-已配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto2@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1234567</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>investor_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baoanqu</t>
+    <t>1234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,59 +197,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto3@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdongsheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, the trading server is under maintenance. Please try later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456199001019999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Eddy1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from users where email ='{}'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto1@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456199001019999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_card.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_proof.jpg</t>
+    <t>Eddy1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,14 +294,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,18 +314,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -527,34 +624,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="71.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,128 +660,230 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
+      <c r="S2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/member_portal/register.xlsx
+++ b/data/member_portal/register.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>case_no</t>
   </si>
@@ -105,123 +105,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>auto1@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456199001019999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_card.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_proof.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册-未配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常注册-已配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto2@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenzhenshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdongsheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdongsheng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nanshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, the trading server is under maintenance. Please try later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456199001019999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddy1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddy1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>delete from users where email ='{}'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto1@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456199001019999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_card.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_proof.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常注册-未配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常注册-已配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto2@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1234567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shenzhenshi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangdongsheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aruba</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autob</t>
+    <t>delete from users where email ='{}'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from users where email ='{}'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,51 +281,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1234567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangdongsheng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanshan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanshan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nanshan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry, the trading server is under maintenance. Please try later</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456199001019999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eddy1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eddy1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan</t>
+    <t>Taiwan异常注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +302,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,15 +330,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -627,7 +646,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -672,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -693,19 +712,19 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>19</v>
@@ -719,10 +738,10 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -734,19 +753,19 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -758,122 +777,128 @@
         <v>22</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data/member_portal/register.xlsx
+++ b/data/member_portal/register.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>case_no</t>
   </si>
@@ -282,6 +282,38 @@
   </si>
   <si>
     <t>Taiwan异常注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四步 没有默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四步 有默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eddy1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,11 +699,13 @@
     <col min="15" max="16" width="9.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="71.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="71.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,13 +764,22 @@
         <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -795,13 +838,22 @@
         <v>60</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -848,13 +900,22 @@
         <v>61</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="X3" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -894,10 +955,10 @@
       <c r="M4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
